--- a/save/sumer_line_list_final_v2.xlsx
+++ b/save/sumer_line_list_final_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3E57D3-DFE0-704F-8507-2801744A5FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B46BC6-CFB5-9545-9AF7-FB9D53F4B7CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11620" yWindow="8780" windowWidth="19100" windowHeight="17440" xr2:uid="{DF7A7CC9-020A-2C46-9DE7-05093E6B85B6}"/>
+    <workbookView xWindow="3980" yWindow="3580" windowWidth="19100" windowHeight="17440" xr2:uid="{DF7A7CC9-020A-2C46-9DE7-05093E6B85B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC44AF-B913-CC4E-AEAA-95B41ACEEC02}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,7 +551,7 @@
         <v>0.34499999999999997</v>
       </c>
       <c r="I2">
-        <v>0.03</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="J2">
         <v>0.28048000000000001</v>
@@ -589,7 +589,7 @@
         <v>0.308</v>
       </c>
       <c r="I3">
-        <v>5.0000000000000001E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="J3">
         <v>0.23250999999999999</v>
@@ -627,7 +627,7 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="I4">
-        <v>0.02</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J4">
         <v>0.187</v>
@@ -665,7 +665,7 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="I5">
-        <v>0.02</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="J5">
         <v>0.25933</v>
@@ -703,7 +703,7 @@
         <v>0.249</v>
       </c>
       <c r="I6">
-        <v>0.01</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="J6">
         <v>0.14180000000000001</v>
@@ -741,7 +741,7 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="I7">
-        <v>0.02</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="J7">
         <v>0.19474</v>
@@ -817,7 +817,7 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="I9">
-        <v>3.0000000000000001E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="J9">
         <v>0.22850000000000001</v>
@@ -855,7 +855,7 @@
         <v>0.28299999999999997</v>
       </c>
       <c r="I10">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J10">
         <v>0.19753999999999999</v>
@@ -890,10 +890,10 @@
         <v>749.55200000000002</v>
       </c>
       <c r="H11">
-        <v>0.30099999999999999</v>
+        <v>0.30120000000000002</v>
       </c>
       <c r="I11">
-        <v>8.9999999999999993E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="J11">
         <v>0.22327</v>
@@ -928,10 +928,10 @@
         <v>762.66</v>
       </c>
       <c r="H12">
-        <v>0.25700000000000001</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="I12">
-        <v>0.02</v>
+        <v>2.4E-2</v>
       </c>
       <c r="J12">
         <v>0.16138</v>
@@ -969,7 +969,7 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="I13">
-        <v>0.02</v>
+        <v>1.6E-2</v>
       </c>
       <c r="J13">
         <v>0.23158000000000001</v>
@@ -1004,10 +1004,10 @@
         <v>770.428</v>
       </c>
       <c r="H14">
-        <v>0.30199999999999999</v>
+        <v>0.30230000000000001</v>
       </c>
       <c r="I14">
-        <v>2E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="J14">
         <v>0.22817999999999999</v>
@@ -1042,10 +1042,10 @@
         <v>772.26</v>
       </c>
       <c r="H15">
-        <v>0.28000000000000003</v>
+        <v>0.2802</v>
       </c>
       <c r="I15">
-        <v>8.9999999999999993E-3</v>
+        <v>8.6E-3</v>
       </c>
       <c r="J15">
         <v>0.19722000000000001</v>
@@ -1083,7 +1083,7 @@
         <v>0.35799999999999998</v>
       </c>
       <c r="I16">
-        <v>0.05</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="J16">
         <v>0.29938999999999999</v>
@@ -1156,10 +1156,10 @@
         <v>782.36199999999997</v>
       </c>
       <c r="H18">
-        <v>0.29899999999999999</v>
+        <v>0.2984</v>
       </c>
       <c r="I18">
-        <v>6.0000000000000001E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="J18">
         <v>0.22303999999999999</v>
@@ -1197,7 +1197,7 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="I19">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="J19">
         <v>0.30064000000000002</v>
@@ -1273,7 +1273,7 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="I21">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="J21">
         <v>0.28828999999999999</v>
@@ -1308,7 +1308,7 @@
         <v>1037.6130000000001</v>
       </c>
       <c r="H22">
-        <v>0.34599999999999997</v>
+        <v>0.34560000000000002</v>
       </c>
       <c r="I22">
         <v>1E-3</v>
@@ -1346,10 +1346,10 @@
         <v>1049.153</v>
       </c>
       <c r="H23">
-        <v>0.35199999999999998</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="I23">
-        <v>0.02</v>
+        <v>1.9E-2</v>
       </c>
       <c r="J23">
         <v>0.29593000000000003</v>
@@ -1387,7 +1387,7 @@
         <v>0.308</v>
       </c>
       <c r="I24">
-        <v>0.03</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="J24">
         <v>0.24487999999999999</v>
@@ -1423,11 +1423,11 @@
         <v>609.79300000000001</v>
       </c>
       <c r="H25">
-        <f>0.343/2</f>
-        <v>0.17150000000000001</v>
+        <f>0.3428/2</f>
+        <v>0.1714</v>
       </c>
       <c r="I25">
-        <v>2E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="J25">
         <v>0.14516000000000001</v>
@@ -1463,8 +1463,8 @@
         <v>624.94100000000003</v>
       </c>
       <c r="H26">
-        <f>0.387/2</f>
-        <v>0.19350000000000001</v>
+        <f>0.3866/2</f>
+        <v>0.1933</v>
       </c>
       <c r="I26">
         <f>0.006/2</f>

--- a/save/sumer_line_list_final_v2.xlsx
+++ b/save/sumer_line_list_final_v2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B46BC6-CFB5-9545-9AF7-FB9D53F4B7CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E170350-19BD-4B43-A3B8-D2DF41085502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="3580" windowWidth="19100" windowHeight="17440" xr2:uid="{DF7A7CC9-020A-2C46-9DE7-05093E6B85B6}"/>
+    <workbookView xWindow="12780" yWindow="1960" windowWidth="19100" windowHeight="17440" activeTab="1" xr2:uid="{DF7A7CC9-020A-2C46-9DE7-05093E6B85B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="awsomr_compare" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="32">
   <si>
     <t>ion</t>
   </si>
@@ -124,6 +125,9 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -477,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC44AF-B913-CC4E-AEAA-95B41ACEEC02}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1525,4 +1529,1054 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8EBBDB-4733-BF42-972E-7759144A5F61}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>55.85</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>680.43899999999996</v>
+      </c>
+      <c r="G2">
+        <v>680.40599999999995</v>
+      </c>
+      <c r="H2">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="I2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.28048000000000001</v>
+      </c>
+      <c r="K2">
+        <v>0.155</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>22.98977</v>
+      </c>
+      <c r="E3">
+        <v>5.9</v>
+      </c>
+      <c r="F3">
+        <v>681.75900000000001</v>
+      </c>
+      <c r="G3">
+        <v>681.71900000000005</v>
+      </c>
+      <c r="H3">
+        <v>0.308</v>
+      </c>
+      <c r="I3">
+        <v>5.3E-3</v>
+      </c>
+      <c r="J3">
+        <v>0.23250999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>24.31</v>
+      </c>
+      <c r="E4">
+        <v>5.9</v>
+      </c>
+      <c r="F4">
+        <v>689.62900000000002</v>
+      </c>
+      <c r="G4">
+        <v>689.64099999999996</v>
+      </c>
+      <c r="H4">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="I4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.187</v>
+      </c>
+      <c r="K4">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>40.08</v>
+      </c>
+      <c r="E5">
+        <v>5.8</v>
+      </c>
+      <c r="F5">
+        <v>691.44500000000005</v>
+      </c>
+      <c r="G5">
+        <v>691.42399999999998</v>
+      </c>
+      <c r="H5">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="I5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.25933</v>
+      </c>
+      <c r="K5">
+        <v>0.155</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>28.0855</v>
+      </c>
+      <c r="E6">
+        <v>5.9</v>
+      </c>
+      <c r="F6">
+        <v>694.73800000000006</v>
+      </c>
+      <c r="G6">
+        <v>694.68600000000004</v>
+      </c>
+      <c r="H6">
+        <v>0.249</v>
+      </c>
+      <c r="I6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>55.85</v>
+      </c>
+      <c r="E7">
+        <v>5.8</v>
+      </c>
+      <c r="F7">
+        <v>697.15499999999997</v>
+      </c>
+      <c r="G7">
+        <v>697.15599999999995</v>
+      </c>
+      <c r="H7">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="I7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.19474</v>
+      </c>
+      <c r="K7">
+        <v>0.15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>26.981539999999999</v>
+      </c>
+      <c r="E8">
+        <v>5.9</v>
+      </c>
+      <c r="F8">
+        <v>703.59199999999998</v>
+      </c>
+      <c r="G8">
+        <v>703.73</v>
+      </c>
+      <c r="H8">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="I8">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.15401999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>24.31</v>
+      </c>
+      <c r="E9">
+        <v>5.9</v>
+      </c>
+      <c r="F9">
+        <v>706.077</v>
+      </c>
+      <c r="G9">
+        <v>706.06</v>
+      </c>
+      <c r="H9">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="I9">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="J9">
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>39.948</v>
+      </c>
+      <c r="E10">
+        <v>5.7</v>
+      </c>
+      <c r="F10">
+        <v>713.78399999999999</v>
+      </c>
+      <c r="G10">
+        <v>713.80100000000004</v>
+      </c>
+      <c r="H10">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="I10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.19753999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>24.31</v>
+      </c>
+      <c r="E11">
+        <v>5.9</v>
+      </c>
+      <c r="F11">
+        <v>749.52499999999998</v>
+      </c>
+      <c r="G11">
+        <v>749.55200000000002</v>
+      </c>
+      <c r="H11">
+        <v>0.30120000000000002</v>
+      </c>
+      <c r="I11">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="J11">
+        <v>0.22327</v>
+      </c>
+      <c r="K11">
+        <v>0.182</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>24.31</v>
+      </c>
+      <c r="E12">
+        <v>5.8</v>
+      </c>
+      <c r="F12">
+        <v>762.64700000000005</v>
+      </c>
+      <c r="G12">
+        <v>762.66</v>
+      </c>
+      <c r="H12">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="I12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.16138</v>
+      </c>
+      <c r="K12">
+        <v>0.184</v>
+      </c>
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>24.31</v>
+      </c>
+      <c r="E13">
+        <v>5.8</v>
+      </c>
+      <c r="F13">
+        <v>769.41099999999994</v>
+      </c>
+      <c r="G13">
+        <v>769.35500000000002</v>
+      </c>
+      <c r="H13">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="I13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.23158000000000001</v>
+      </c>
+      <c r="K13">
+        <v>0.185</v>
+      </c>
+      <c r="L13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>20.178999999999998</v>
+      </c>
+      <c r="E14">
+        <v>5.8</v>
+      </c>
+      <c r="F14">
+        <v>770.42600000000004</v>
+      </c>
+      <c r="G14">
+        <v>770.428</v>
+      </c>
+      <c r="H14">
+        <v>0.30230000000000001</v>
+      </c>
+      <c r="I14">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="J14">
+        <v>0.22817999999999999</v>
+      </c>
+      <c r="K14">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>24.31</v>
+      </c>
+      <c r="E15">
+        <v>5.8</v>
+      </c>
+      <c r="F15">
+        <v>772.30200000000002</v>
+      </c>
+      <c r="G15">
+        <v>772.26</v>
+      </c>
+      <c r="H15">
+        <v>0.2802</v>
+      </c>
+      <c r="I15">
+        <v>8.6E-3</v>
+      </c>
+      <c r="J15">
+        <v>0.19722000000000001</v>
+      </c>
+      <c r="K15">
+        <v>0.186</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>32.06</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>776.24199999999996</v>
+      </c>
+      <c r="G16">
+        <v>776.37300000000005</v>
+      </c>
+      <c r="H16">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="I16">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J16">
+        <v>0.29938999999999999</v>
+      </c>
+      <c r="K16">
+        <v>0.191</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>20.178999999999998</v>
+      </c>
+      <c r="E17">
+        <v>5.8</v>
+      </c>
+      <c r="F17">
+        <v>780.38</v>
+      </c>
+      <c r="G17">
+        <v>780.38499999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.311</v>
+      </c>
+      <c r="I17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J17">
+        <v>0.23980000000000001</v>
+      </c>
+      <c r="K17">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="L17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>24.31</v>
+      </c>
+      <c r="E18">
+        <v>5.8</v>
+      </c>
+      <c r="F18">
+        <v>782.42</v>
+      </c>
+      <c r="G18">
+        <v>782.36199999999997</v>
+      </c>
+      <c r="H18">
+        <v>0.2984</v>
+      </c>
+      <c r="I18">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="J18">
+        <v>0.22303999999999999</v>
+      </c>
+      <c r="K18">
+        <v>0.188</v>
+      </c>
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>55.85</v>
+      </c>
+      <c r="E19">
+        <v>5.9</v>
+      </c>
+      <c r="F19">
+        <v>1028.04</v>
+      </c>
+      <c r="G19">
+        <v>1028.0530000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="I19">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.30064000000000002</v>
+      </c>
+      <c r="K19">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>55.85</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>1028.99</v>
+      </c>
+      <c r="G20">
+        <v>1028.9549999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.03</v>
+      </c>
+      <c r="J20">
+        <v>0.25990000000000002</v>
+      </c>
+      <c r="K20">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="L20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>15.9994</v>
+      </c>
+      <c r="E21">
+        <v>5.8</v>
+      </c>
+      <c r="F21">
+        <v>1031.92</v>
+      </c>
+      <c r="G21">
+        <v>1031.912</v>
+      </c>
+      <c r="H21">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="I21">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="J21">
+        <v>0.28828999999999999</v>
+      </c>
+      <c r="K21">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>15.9994</v>
+      </c>
+      <c r="E22">
+        <v>5.8</v>
+      </c>
+      <c r="F22">
+        <v>1037.6199999999999</v>
+      </c>
+      <c r="G22">
+        <v>1037.6130000000001</v>
+      </c>
+      <c r="H22">
+        <v>0.34560000000000002</v>
+      </c>
+      <c r="I22">
+        <v>1E-3</v>
+      </c>
+      <c r="J22">
+        <v>0.2888</v>
+      </c>
+      <c r="K22">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="L22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>28.0855</v>
+      </c>
+      <c r="E23">
+        <v>5.8</v>
+      </c>
+      <c r="F23">
+        <v>1049.28</v>
+      </c>
+      <c r="G23">
+        <v>1049.153</v>
+      </c>
+      <c r="H23">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="I23">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J23">
+        <v>0.29593000000000003</v>
+      </c>
+      <c r="K23">
+        <v>0.246</v>
+      </c>
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>26.981539999999999</v>
+      </c>
+      <c r="E24">
+        <v>5.8</v>
+      </c>
+      <c r="F24">
+        <v>1053.8599999999999</v>
+      </c>
+      <c r="G24">
+        <v>1053.9960000000001</v>
+      </c>
+      <c r="H24">
+        <v>0.308</v>
+      </c>
+      <c r="I24">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.24487999999999999</v>
+      </c>
+      <c r="K24">
+        <v>0.248</v>
+      </c>
+      <c r="L24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>24.31</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <f>1219.6/2</f>
+        <v>609.79999999999995</v>
+      </c>
+      <c r="G25">
+        <v>609.79300000000001</v>
+      </c>
+      <c r="H25">
+        <f>0.3428/2</f>
+        <v>0.1714</v>
+      </c>
+      <c r="I25">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J25">
+        <v>0.14516000000000001</v>
+      </c>
+      <c r="K25">
+        <v>0.152</v>
+      </c>
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>24.31</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <f>1249.91/2</f>
+        <v>624.95500000000004</v>
+      </c>
+      <c r="G26">
+        <v>624.94100000000003</v>
+      </c>
+      <c r="H26">
+        <f>0.3866/2</f>
+        <v>0.1933</v>
+      </c>
+      <c r="I26">
+        <f>0.006/2</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J26">
+        <f>0.17058</f>
+        <v>0.17058000000000001</v>
+      </c>
+      <c r="K26">
+        <v>0.155</v>
+      </c>
+      <c r="L26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>28.0855</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <f>1249.44/2</f>
+        <v>624.72</v>
+      </c>
+      <c r="G27">
+        <v>624.69399999999996</v>
+      </c>
+      <c r="H27">
+        <f>0.29/2</f>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="I27">
+        <f>0.04/2</f>
+        <v>0.02</v>
+      </c>
+      <c r="J27">
+        <v>0.11183999999999999</v>
+      </c>
+      <c r="K27">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/save/sumer_line_list_final_v2.xlsx
+++ b/save/sumer_line_list_final_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E170350-19BD-4B43-A3B8-D2DF41085502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF9247E-0D15-6F4B-A59C-3DCD5193817D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12780" yWindow="1960" windowWidth="19100" windowHeight="17440" activeTab="1" xr2:uid="{DF7A7CC9-020A-2C46-9DE7-05093E6B85B6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="33">
   <si>
     <t>ion</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>fwhm_awsom_err</t>
   </si>
 </sst>
 </file>
@@ -163,8 +166,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1533,15 +1537,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8EBBDB-4733-BF42-972E-7759144A5F61}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="12" width="20.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1576,10 +1583,13 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1611,13 +1621,16 @@
         <v>0.28048000000000001</v>
       </c>
       <c r="K2">
-        <v>0.155</v>
-      </c>
-      <c r="L2" t="s">
+        <v>0.1552</v>
+      </c>
+      <c r="L2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="M2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1649,13 +1662,16 @@
         <v>0.23250999999999999</v>
       </c>
       <c r="K3">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.16817799999999999</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1687,13 +1703,16 @@
         <v>0.187</v>
       </c>
       <c r="K4">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.16589100000000001</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4.1E-5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1725,13 +1744,16 @@
         <v>0.25933</v>
       </c>
       <c r="K5">
-        <v>0.155</v>
-      </c>
-      <c r="L5" t="s">
+        <v>0.1552</v>
+      </c>
+      <c r="L5">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="M5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1763,13 +1785,16 @@
         <v>0.14180000000000001</v>
       </c>
       <c r="K6">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="L6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.16727</v>
+      </c>
+      <c r="L6">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1801,13 +1826,16 @@
         <v>0.19474</v>
       </c>
       <c r="K7">
-        <v>0.15</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.15042900000000001</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1839,13 +1867,16 @@
         <v>0.15401999999999999</v>
       </c>
       <c r="K8">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="L8" t="s">
+        <v>0.16933999999999999</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="M8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1877,13 +1908,16 @@
         <v>0.22850000000000001</v>
       </c>
       <c r="K9">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="L9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.17132500000000001</v>
+      </c>
+      <c r="L9" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1915,13 +1949,16 @@
         <v>0.19753999999999999</v>
       </c>
       <c r="K10">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="L10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.16223000000000001</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5.8999999999999998E-5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1953,13 +1990,16 @@
         <v>0.22327</v>
       </c>
       <c r="K11">
-        <v>0.182</v>
-      </c>
-      <c r="L11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.18217</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.1E-4</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1991,13 +2031,16 @@
         <v>0.16138</v>
       </c>
       <c r="K12">
-        <v>0.184</v>
-      </c>
-      <c r="L12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.18351700000000001</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2029,13 +2072,16 @@
         <v>0.23158000000000001</v>
       </c>
       <c r="K13">
-        <v>0.185</v>
-      </c>
-      <c r="L13" t="s">
+        <v>0.18514</v>
+      </c>
+      <c r="L13" s="1">
+        <v>8.1000000000000004E-5</v>
+      </c>
+      <c r="M13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2067,13 +2113,16 @@
         <v>0.22817999999999999</v>
       </c>
       <c r="K14">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="L14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.19489999999999999</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.2E-4</v>
+      </c>
+      <c r="M14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2105,13 +2154,16 @@
         <v>0.19722000000000001</v>
       </c>
       <c r="K15">
-        <v>0.186</v>
-      </c>
-      <c r="L15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.185915</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1.2E-5</v>
+      </c>
+      <c r="M15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2143,13 +2195,16 @@
         <v>0.29938999999999999</v>
       </c>
       <c r="K16">
-        <v>0.191</v>
-      </c>
-      <c r="L16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.19123000000000001</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2181,13 +2236,16 @@
         <v>0.23980000000000001</v>
       </c>
       <c r="K17">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="L17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.19728799999999999</v>
+      </c>
+      <c r="L17" s="1">
+        <v>9.2E-5</v>
+      </c>
+      <c r="M17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2219,13 +2277,16 @@
         <v>0.22303999999999999</v>
       </c>
       <c r="K18">
-        <v>0.188</v>
-      </c>
-      <c r="L18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.18809200000000001</v>
+      </c>
+      <c r="L18" s="1">
+        <v>6.4999999999999994E-5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2257,13 +2318,16 @@
         <v>0.30064000000000002</v>
       </c>
       <c r="K19">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="L19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.22786999999999999</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="M19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2295,13 +2359,16 @@
         <v>0.25990000000000002</v>
       </c>
       <c r="K20">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="L20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.23347999999999999</v>
+      </c>
+      <c r="L20" s="1">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="M20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2333,13 +2400,16 @@
         <v>0.28828999999999999</v>
       </c>
       <c r="K21">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="L21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.27639999999999998</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.2E-4</v>
+      </c>
+      <c r="M21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2371,13 +2441,16 @@
         <v>0.2888</v>
       </c>
       <c r="K22">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="L22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.27795500000000001</v>
+      </c>
+      <c r="L22" s="1">
+        <v>7.1000000000000005E-5</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2409,13 +2482,16 @@
         <v>0.29593000000000003</v>
       </c>
       <c r="K23">
-        <v>0.246</v>
-      </c>
-      <c r="L23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.24615999999999999</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.2E-4</v>
+      </c>
+      <c r="M23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -2447,13 +2523,16 @@
         <v>0.24487999999999999</v>
       </c>
       <c r="K24">
-        <v>0.248</v>
-      </c>
-      <c r="L24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.24834500000000001</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4.8000000000000001E-5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2487,13 +2566,16 @@
         <v>0.14516000000000001</v>
       </c>
       <c r="K25">
-        <v>0.152</v>
-      </c>
-      <c r="L25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.151506</v>
+      </c>
+      <c r="L25" s="1">
+        <v>8.7000000000000001E-5</v>
+      </c>
+      <c r="M25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -2529,13 +2611,16 @@
         <v>0.17058000000000001</v>
       </c>
       <c r="K26">
-        <v>0.155</v>
-      </c>
-      <c r="L26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.15493999999999999</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1.1E-4</v>
+      </c>
+      <c r="M26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2570,9 +2655,12 @@
         <v>0.11183999999999999</v>
       </c>
       <c r="K27">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="L27" t="s">
+        <v>0.1694</v>
+      </c>
+      <c r="L27" s="1">
+        <v>3.3E-3</v>
+      </c>
+      <c r="M27" t="s">
         <v>29</v>
       </c>
     </row>

--- a/save/sumer_line_list_final_v2.xlsx
+++ b/save/sumer_line_list_final_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF9247E-0D15-6F4B-A59C-3DCD5193817D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A45C75-F8E8-1D4F-9D3A-469E05D86BC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="1960" windowWidth="19100" windowHeight="17440" activeTab="1" xr2:uid="{DF7A7CC9-020A-2C46-9DE7-05093E6B85B6}"/>
+    <workbookView xWindow="13440" yWindow="3420" windowWidth="19100" windowHeight="17440" xr2:uid="{DF7A7CC9-020A-2C46-9DE7-05093E6B85B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC44AF-B913-CC4E-AEAA-95B41ACEEC02}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -588,7 +588,7 @@
         <v>5.9</v>
       </c>
       <c r="F3">
-        <v>681.75900000000001</v>
+        <v>681.76</v>
       </c>
       <c r="G3">
         <v>681.71900000000005</v>
@@ -597,10 +597,10 @@
         <v>0.308</v>
       </c>
       <c r="I3">
-        <v>5.3E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="J3">
-        <v>0.23250999999999999</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="K3">
         <v>0.17499999999999999</v>
@@ -638,7 +638,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="J4">
-        <v>0.187</v>
+        <v>0.18695999999999999</v>
       </c>
       <c r="K4">
         <v>0.17</v>
@@ -749,10 +749,10 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="I7">
-        <v>2.1000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J7">
-        <v>0.19474</v>
+        <v>0.19422</v>
       </c>
       <c r="K7">
         <v>0.154</v>
@@ -828,7 +828,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="J9">
-        <v>0.22850000000000001</v>
+        <v>0.22853000000000001</v>
       </c>
       <c r="K9">
         <v>0.183</v>
@@ -860,13 +860,13 @@
         <v>713.80100000000004</v>
       </c>
       <c r="H10">
-        <v>0.28299999999999997</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="I10">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="J10">
-        <v>0.19753999999999999</v>
+        <v>0.19658999999999999</v>
       </c>
       <c r="K10">
         <v>0.16600000000000001</v>
@@ -898,13 +898,13 @@
         <v>749.55200000000002</v>
       </c>
       <c r="H11">
-        <v>0.30120000000000002</v>
+        <v>0.3009</v>
       </c>
       <c r="I11">
-        <v>9.2999999999999992E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="J11">
-        <v>0.22327</v>
+        <v>0.22284000000000001</v>
       </c>
       <c r="K11">
         <v>0.19500000000000001</v>
@@ -942,7 +942,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="J12">
-        <v>0.16138</v>
+        <v>0.16264000000000001</v>
       </c>
       <c r="K12">
         <v>0.187</v>
@@ -980,7 +980,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="J13">
-        <v>0.23158000000000001</v>
+        <v>0.2319</v>
       </c>
       <c r="K13">
         <v>0.189</v>
@@ -1094,7 +1094,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="J16">
-        <v>0.29938999999999999</v>
+        <v>0.29914000000000002</v>
       </c>
       <c r="K16">
         <v>0.23499999999999999</v>
@@ -1132,7 +1132,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J17">
-        <v>0.23980000000000001</v>
+        <v>0.23976</v>
       </c>
       <c r="K17">
         <v>0.193</v>
@@ -1170,7 +1170,7 @@
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="J18">
-        <v>0.22303999999999999</v>
+        <v>0.22287999999999999</v>
       </c>
       <c r="K18">
         <v>0.191</v>
@@ -1246,7 +1246,7 @@
         <v>0.03</v>
       </c>
       <c r="J20">
-        <v>0.25990000000000002</v>
+        <v>0.26040000000000002</v>
       </c>
       <c r="K20">
         <v>0.28699999999999998</v>
@@ -1278,13 +1278,13 @@
         <v>1031.912</v>
       </c>
       <c r="H21">
-        <v>0.34799999999999998</v>
+        <v>0.35020000000000001</v>
       </c>
       <c r="I21">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="J21">
-        <v>0.28828999999999999</v>
+        <v>0.2944</v>
       </c>
       <c r="K21">
         <v>0.26900000000000002</v>
@@ -1354,13 +1354,13 @@
         <v>1049.153</v>
       </c>
       <c r="H23">
-        <v>0.35099999999999998</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="I23">
         <v>1.9E-2</v>
       </c>
       <c r="J23">
-        <v>0.29593000000000003</v>
+        <v>0.29594999999999999</v>
       </c>
       <c r="K23">
         <v>0.245</v>
@@ -1392,13 +1392,13 @@
         <v>1053.9960000000001</v>
       </c>
       <c r="H24">
-        <v>0.308</v>
+        <v>0.307</v>
       </c>
       <c r="I24">
-        <v>3.4000000000000002E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="J24">
-        <v>0.24487999999999999</v>
+        <v>0.24387</v>
       </c>
       <c r="K24">
         <v>0.247</v>
@@ -1438,7 +1438,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="J25">
-        <v>0.14516000000000001</v>
+        <v>0.14510000000000001</v>
       </c>
       <c r="K25">
         <v>0.17399999999999999</v>
@@ -1539,7 +1539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8EBBDB-4733-BF42-972E-7759144A5F61}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/save/sumer_line_list_final_v2.xlsx
+++ b/save/sumer_line_list_final_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A45C75-F8E8-1D4F-9D3A-469E05D86BC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C6FA38-7154-3A4B-AF32-66E755AEDA73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="3420" windowWidth="19100" windowHeight="17440" xr2:uid="{DF7A7CC9-020A-2C46-9DE7-05093E6B85B6}"/>
+    <workbookView xWindow="10200" yWindow="460" windowWidth="19100" windowHeight="17440" activeTab="1" xr2:uid="{DF7A7CC9-020A-2C46-9DE7-05093E6B85B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC44AF-B913-CC4E-AEAA-95B41ACEEC02}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1539,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8EBBDB-4733-BF42-972E-7759144A5F61}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1656,10 +1656,10 @@
         <v>0.308</v>
       </c>
       <c r="I3">
-        <v>5.3E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="J3">
-        <v>0.23250999999999999</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="K3">
         <v>0.16817799999999999</v>
@@ -1700,7 +1700,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="J4">
-        <v>0.187</v>
+        <v>0.18695999999999999</v>
       </c>
       <c r="K4">
         <v>0.16589100000000001</v>
@@ -1820,10 +1820,10 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="I7">
-        <v>2.1000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J7">
-        <v>0.19474</v>
+        <v>0.19422</v>
       </c>
       <c r="K7">
         <v>0.15042900000000001</v>
@@ -1905,7 +1905,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="J9">
-        <v>0.22850000000000001</v>
+        <v>0.22853000000000001</v>
       </c>
       <c r="K9">
         <v>0.17132500000000001</v>
@@ -1940,13 +1940,13 @@
         <v>713.80100000000004</v>
       </c>
       <c r="H10">
-        <v>0.28299999999999997</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="I10">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="J10">
-        <v>0.19753999999999999</v>
+        <v>0.19658999999999999</v>
       </c>
       <c r="K10">
         <v>0.16223000000000001</v>
@@ -1981,13 +1981,13 @@
         <v>749.55200000000002</v>
       </c>
       <c r="H11">
-        <v>0.30120000000000002</v>
+        <v>0.3009</v>
       </c>
       <c r="I11">
-        <v>9.2999999999999992E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="J11">
-        <v>0.22327</v>
+        <v>0.22284000000000001</v>
       </c>
       <c r="K11">
         <v>0.18217</v>
@@ -2028,7 +2028,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="J12">
-        <v>0.16138</v>
+        <v>0.16264000000000001</v>
       </c>
       <c r="K12">
         <v>0.18351700000000001</v>
@@ -2069,7 +2069,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="J13">
-        <v>0.23158000000000001</v>
+        <v>0.2319</v>
       </c>
       <c r="K13">
         <v>0.18514</v>
@@ -2192,7 +2192,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="J16">
-        <v>0.29938999999999999</v>
+        <v>0.29914000000000002</v>
       </c>
       <c r="K16">
         <v>0.19123000000000001</v>
@@ -2233,7 +2233,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J17">
-        <v>0.23980000000000001</v>
+        <v>0.23976</v>
       </c>
       <c r="K17">
         <v>0.19728799999999999</v>
@@ -2274,7 +2274,7 @@
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="J18">
-        <v>0.22303999999999999</v>
+        <v>0.22287999999999999</v>
       </c>
       <c r="K18">
         <v>0.18809200000000001</v>
@@ -2356,7 +2356,7 @@
         <v>0.03</v>
       </c>
       <c r="J20">
-        <v>0.25990000000000002</v>
+        <v>0.26040000000000002</v>
       </c>
       <c r="K20">
         <v>0.23347999999999999</v>
@@ -2391,13 +2391,13 @@
         <v>1031.912</v>
       </c>
       <c r="H21">
-        <v>0.34799999999999998</v>
+        <v>0.35020000000000001</v>
       </c>
       <c r="I21">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="J21">
-        <v>0.28828999999999999</v>
+        <v>0.2944</v>
       </c>
       <c r="K21">
         <v>0.27639999999999998</v>
@@ -2473,13 +2473,13 @@
         <v>1049.153</v>
       </c>
       <c r="H23">
-        <v>0.35099999999999998</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="I23">
         <v>1.9E-2</v>
       </c>
       <c r="J23">
-        <v>0.29593000000000003</v>
+        <v>0.29594999999999999</v>
       </c>
       <c r="K23">
         <v>0.24615999999999999</v>
@@ -2514,13 +2514,13 @@
         <v>1053.9960000000001</v>
       </c>
       <c r="H24">
-        <v>0.308</v>
+        <v>0.307</v>
       </c>
       <c r="I24">
-        <v>3.4000000000000002E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="J24">
-        <v>0.24487999999999999</v>
+        <v>0.24387</v>
       </c>
       <c r="K24">
         <v>0.24834500000000001</v>
@@ -2563,7 +2563,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="J25">
-        <v>0.14516000000000001</v>
+        <v>0.14510000000000001</v>
       </c>
       <c r="K25">
         <v>0.151506</v>
